--- a/Subject_Dir/Subject_List.xlsx
+++ b/Subject_Dir/Subject_List.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="29">
   <si>
     <t>과목</t>
   </si>

--- a/Subject_Dir/Subject_List.xlsx
+++ b/Subject_Dir/Subject_List.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="29">
   <si>
     <t>과목</t>
   </si>

--- a/Subject_Dir/Subject_List.xlsx
+++ b/Subject_Dir/Subject_List.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
   <si>
     <t>프로젝트</t>
   </si>
@@ -36,6 +36,27 @@
   </si>
   <si>
     <t>1분기</t>
+  </si>
+  <si>
+    <t>K-Pper 개발</t>
+  </si>
+  <si>
+    <t>홍길동</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2분기</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>TTA web 유지보수</t>
+  </si>
+  <si>
+    <t>김영희</t>
   </si>
 </sst>
 </file>
@@ -80,7 +101,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
@@ -102,15 +123,29 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
       </c>
     </row>
